--- a/output/full_rat/ConceptNet_search/rat_2,3_conceptnet_search.xlsx
+++ b/output/full_rat/ConceptNet_search/rat_2,3_conceptnet_search.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\full_rat\ConceptNet_search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E9407E-9963-4C50-A877-A1522756BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3208,8 +3214,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3272,6 +3278,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3318,7 +3332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3350,9 +3364,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3384,6 +3416,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3559,14 +3609,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="29.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3595,7 +3650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3621,7 +3676,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3647,7 +3702,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3670,7 +3725,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3693,7 +3748,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3707,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3724,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3738,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3752,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3772,7 +3827,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3786,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3800,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3814,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3831,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3845,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3862,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3876,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -3890,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3904,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3918,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -3932,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -3949,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3966,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3980,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3994,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -4008,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -4022,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -4039,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4053,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -4067,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -4081,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4095,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4109,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4123,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -4149,7 +4204,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4163,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -4177,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -4191,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -4205,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4219,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -4233,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -4259,7 +4314,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -4273,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -4287,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -4301,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -4315,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -4329,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -4343,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -4357,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -4374,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -4388,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -4405,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -4419,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -4436,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -4450,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -4464,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -4478,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -4504,7 +4559,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -4527,7 +4582,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -4547,7 +4602,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -4570,7 +4625,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -4587,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -4604,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -4621,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -4638,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -4664,7 +4719,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -4678,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -4695,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -4709,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -4735,7 +4790,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -4752,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -4769,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -4783,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -4797,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -4814,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -4828,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -4842,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -4856,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -4870,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -4887,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -4901,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -4915,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -4929,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -4946,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -4960,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -4974,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -4991,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -5005,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -5019,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -5036,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -5050,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -5064,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -5078,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -5101,7 +5156,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -5124,7 +5179,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -5147,7 +5202,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -5170,7 +5225,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>105</v>
       </c>
@@ -5187,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -5204,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>107</v>
       </c>
@@ -5221,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -5238,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -5252,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>110</v>
       </c>
@@ -5275,7 +5330,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>111</v>
       </c>
@@ -5292,7 +5347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -5306,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>113</v>
       </c>
@@ -5320,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>114</v>
       </c>
@@ -5337,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -5354,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -5368,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -5391,7 +5446,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>118</v>
       </c>
@@ -5405,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -5422,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -5436,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -5453,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -5467,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -5484,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>124</v>
       </c>
@@ -5498,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -5512,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>126</v>
       </c>
@@ -5526,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>127</v>
       </c>
@@ -5540,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -5554,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>129</v>
       </c>
@@ -5568,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>130</v>
       </c>
@@ -5582,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>131</v>
       </c>
@@ -5599,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -5613,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>133</v>
       </c>
@@ -5627,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -5644,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>135</v>
       </c>
@@ -5658,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -5672,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>137</v>
       </c>
@@ -5686,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -5700,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>139</v>
       </c>
@@ -5714,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -5728,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -5745,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -5759,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>143</v>
       </c>
@@ -5773,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -5787,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>145</v>
       </c>
@@ -5801,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>146</v>
       </c>
@@ -5815,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -5832,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>148</v>
       </c>
@@ -5846,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -5860,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -5877,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -5903,7 +5958,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -5917,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -5934,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>154</v>
       </c>
@@ -5951,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>155</v>
       </c>
@@ -5965,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -5979,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>157</v>
       </c>
@@ -5993,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -6016,7 +6071,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>159</v>
       </c>
@@ -6030,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>160</v>
       </c>
@@ -6044,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>161</v>
       </c>
@@ -6058,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>162</v>
       </c>
@@ -6072,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -6089,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -6103,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -6117,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -6131,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -6145,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -6159,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -6185,7 +6240,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>170</v>
       </c>
@@ -6211,7 +6266,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -6234,7 +6289,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -6257,7 +6312,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>173</v>
       </c>
@@ -6283,7 +6338,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>174</v>
       </c>
@@ -6300,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>175</v>
       </c>
@@ -6317,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>176</v>
       </c>
@@ -6331,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>177</v>
       </c>
@@ -6357,7 +6412,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>178</v>
       </c>
@@ -6374,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>179</v>
       </c>
@@ -6391,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -6408,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>181</v>
       </c>
@@ -6425,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>182</v>
       </c>
@@ -6439,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>183</v>
       </c>
@@ -6453,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -6467,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>185</v>
       </c>
@@ -6484,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>186</v>
       </c>
@@ -6510,7 +6565,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>187</v>
       </c>
@@ -6527,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>188</v>
       </c>
@@ -6541,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>189</v>
       </c>
@@ -6555,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>190</v>
       </c>
@@ -6569,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>191</v>
       </c>
@@ -6586,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>192</v>
       </c>
@@ -6600,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>193</v>
       </c>
@@ -6614,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>194</v>
       </c>
@@ -6634,7 +6689,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>195</v>
       </c>
@@ -6648,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>196</v>
       </c>
@@ -6662,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>197</v>
       </c>
@@ -6679,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>198</v>
       </c>
@@ -6705,7 +6760,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>199</v>
       </c>
@@ -6722,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -6736,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>201</v>
       </c>
@@ -6753,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>202</v>
       </c>
@@ -6767,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>203</v>
       </c>
@@ -6784,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>204</v>
       </c>
@@ -6798,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>205</v>
       </c>
@@ -6812,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>206</v>
       </c>
@@ -6826,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>207</v>
       </c>
@@ -6852,7 +6907,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>208</v>
       </c>
@@ -6866,7 +6921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -6892,7 +6947,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>210</v>
       </c>
@@ -6909,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>211</v>
       </c>
@@ -6926,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>212</v>
       </c>
@@ -6940,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>213</v>
       </c>
@@ -6966,7 +7021,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>214</v>
       </c>
@@ -6983,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>215</v>
       </c>
@@ -7000,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>216</v>
       </c>
@@ -7017,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>217</v>
       </c>
@@ -7037,7 +7092,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>218</v>
       </c>
@@ -7051,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>219</v>
       </c>
@@ -7065,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>220</v>
       </c>
@@ -7079,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>221</v>
       </c>
@@ -7093,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>222</v>
       </c>
@@ -7107,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>223</v>
       </c>
@@ -7121,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -7135,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>225</v>
       </c>
@@ -7149,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>226</v>
       </c>
@@ -7166,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>227</v>
       </c>
@@ -7180,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>228</v>
       </c>
@@ -7194,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>229</v>
       </c>
@@ -7211,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>230</v>
       </c>
@@ -7234,7 +7289,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>231</v>
       </c>
@@ -7248,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>232</v>
       </c>
@@ -7262,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>233</v>
       </c>
@@ -7288,7 +7343,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>234</v>
       </c>
@@ -7305,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>235</v>
       </c>
@@ -7319,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>236</v>
       </c>
@@ -7333,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>237</v>
       </c>
@@ -7350,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>238</v>
       </c>
@@ -7367,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>239</v>
       </c>
@@ -7381,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>240</v>
       </c>
@@ -7395,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>241</v>
       </c>
@@ -7412,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>242</v>
       </c>
@@ -7429,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>243</v>
       </c>
@@ -7443,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>244</v>
       </c>
@@ -7457,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>245</v>
       </c>
@@ -7471,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>246</v>
       </c>
@@ -7485,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>247</v>
       </c>
@@ -7499,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>248</v>
       </c>
@@ -7513,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>249</v>
       </c>
@@ -7530,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>250</v>
       </c>
@@ -7550,7 +7605,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>251</v>
       </c>
@@ -7567,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>252</v>
       </c>
@@ -7581,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>253</v>
       </c>
@@ -7598,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>254</v>
       </c>
@@ -7612,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>255</v>
       </c>
@@ -7626,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>256</v>
       </c>
@@ -7640,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>257</v>
       </c>
@@ -7654,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>258</v>
       </c>
@@ -7668,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>259</v>
       </c>
@@ -7682,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>260</v>
       </c>
@@ -7696,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>261</v>
       </c>
@@ -7713,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>262</v>
       </c>
@@ -7736,7 +7791,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>263</v>
       </c>
@@ -7750,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>264</v>
       </c>
@@ -7764,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>265</v>
       </c>
@@ -7778,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>266</v>
       </c>
@@ -7795,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>267</v>
       </c>
@@ -7812,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>268</v>
       </c>
@@ -7826,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>269</v>
       </c>
@@ -7843,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>270</v>
       </c>
@@ -7860,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>271</v>
       </c>
@@ -7877,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>272</v>
       </c>
@@ -7894,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>273</v>
       </c>
@@ -7908,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>274</v>
       </c>
@@ -7925,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>275</v>
       </c>
@@ -7942,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>276</v>
       </c>
@@ -7956,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>277</v>
       </c>
@@ -7970,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>278</v>
       </c>
@@ -7987,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>279</v>
       </c>
@@ -8001,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>280</v>
       </c>
@@ -8015,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>281</v>
       </c>
@@ -8029,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>282</v>
       </c>
@@ -8046,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>283</v>
       </c>
@@ -8072,7 +8127,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>284</v>
       </c>
@@ -8086,7 +8141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>285</v>
       </c>
@@ -8100,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>286</v>
       </c>
@@ -8114,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>287</v>
       </c>
@@ -8128,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>288</v>
       </c>
@@ -8142,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>289</v>
       </c>
@@ -8162,7 +8217,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>290</v>
       </c>
@@ -8176,7 +8231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>291</v>
       </c>
@@ -8190,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>292</v>
       </c>
@@ -8204,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>293</v>
       </c>
@@ -8221,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>294</v>
       </c>
@@ -8238,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>295</v>
       </c>
@@ -8264,7 +8319,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>296</v>
       </c>
@@ -8281,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>297</v>
       </c>
@@ -8298,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>298</v>
       </c>
@@ -8315,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>299</v>
       </c>
@@ -8335,7 +8390,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>300</v>
       </c>
@@ -8349,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>301</v>
       </c>
@@ -8363,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>302</v>
       </c>
@@ -8377,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>303</v>
       </c>
@@ -8391,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>304</v>
       </c>
@@ -8405,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>305</v>
       </c>
@@ -8419,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>306</v>
       </c>
@@ -8436,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>307</v>
       </c>
@@ -8453,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>308</v>
       </c>
@@ -8467,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>309</v>
       </c>
@@ -8484,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>310</v>
       </c>
@@ -8498,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>311</v>
       </c>
@@ -8512,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>312</v>
       </c>
@@ -8526,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>313</v>
       </c>
@@ -8540,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>314</v>
       </c>
@@ -8554,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>315</v>
       </c>
@@ -8568,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>316</v>
       </c>
@@ -8582,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>317</v>
       </c>
@@ -8599,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>318</v>
       </c>
@@ -8613,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>319</v>
       </c>
@@ -8627,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>320</v>
       </c>
@@ -8641,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>321</v>
       </c>
@@ -8655,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>322</v>
       </c>
@@ -8672,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>323</v>
       </c>
@@ -8686,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>324</v>
       </c>
@@ -8700,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>325</v>
       </c>
@@ -8714,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>326</v>
       </c>
@@ -8728,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>327</v>
       </c>
@@ -8742,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>328</v>
       </c>
@@ -8756,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>329</v>
       </c>
@@ -8773,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>330</v>
       </c>
@@ -8790,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>331</v>
       </c>
@@ -8804,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>332</v>
       </c>
@@ -8818,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>333</v>
       </c>
@@ -8835,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>334</v>
       </c>
@@ -8852,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>335</v>
       </c>
@@ -8869,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>336</v>
       </c>
@@ -8886,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>337</v>
       </c>
@@ -8900,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>338</v>
       </c>
@@ -8914,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>339</v>
       </c>
@@ -8928,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>340</v>
       </c>
@@ -8942,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>341</v>
       </c>
@@ -8956,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>342</v>
       </c>
@@ -8973,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>343</v>
       </c>
@@ -8987,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>344</v>
       </c>
@@ -9001,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>345</v>
       </c>
@@ -9018,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>346</v>
       </c>
@@ -9032,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>347</v>
       </c>
@@ -9046,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>348</v>
       </c>
@@ -9060,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>349</v>
       </c>
@@ -9080,7 +9135,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>350</v>
       </c>
@@ -9100,7 +9155,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>351</v>
       </c>
@@ -9120,7 +9175,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>352</v>
       </c>
@@ -9140,7 +9195,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>353</v>
       </c>
@@ -9154,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>354</v>
       </c>
@@ -9168,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>355</v>
       </c>
@@ -9185,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>356</v>
       </c>
@@ -9199,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>357</v>
       </c>
@@ -9213,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>358</v>
       </c>
@@ -9227,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>359</v>
       </c>
@@ -9241,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>360</v>
       </c>
@@ -9255,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>361</v>
       </c>
@@ -9269,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>362</v>
       </c>
@@ -9286,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>363</v>
       </c>
@@ -9303,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>364</v>
       </c>
@@ -9317,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>365</v>
       </c>
@@ -9331,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>366</v>
       </c>
@@ -9351,7 +9406,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>367</v>
       </c>
@@ -9365,7 +9420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>368</v>
       </c>
@@ -9379,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>369</v>
       </c>
@@ -9399,7 +9454,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>370</v>
       </c>
@@ -9422,7 +9477,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>371</v>
       </c>
@@ -9445,7 +9500,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>372</v>
       </c>
@@ -9468,7 +9523,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>373</v>
       </c>
@@ -9482,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>374</v>
       </c>
@@ -9496,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>375</v>
       </c>
@@ -9513,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>376</v>
       </c>
@@ -9527,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>377</v>
       </c>
@@ -9544,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>378</v>
       </c>
@@ -9558,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>379</v>
       </c>
@@ -9575,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>380</v>
       </c>
@@ -9589,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>381</v>
       </c>
@@ -9603,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>382</v>
       </c>
@@ -9620,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>383</v>
       </c>
@@ -9634,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>384</v>
       </c>
@@ -9648,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>385</v>
       </c>
@@ -9662,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>386</v>
       </c>
@@ -9676,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>387</v>
       </c>
@@ -9693,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>388</v>
       </c>
@@ -9707,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>389</v>
       </c>
@@ -9721,7 +9776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>390</v>
       </c>
@@ -9738,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>391</v>
       </c>
@@ -9752,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>392</v>
       </c>
@@ -9766,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>393</v>
       </c>
@@ -9783,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>394</v>
       </c>
@@ -9800,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>395</v>
       </c>
@@ -9817,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>396</v>
       </c>
@@ -9831,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>397</v>
       </c>
@@ -9851,7 +9906,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>398</v>
       </c>
@@ -9865,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>399</v>
       </c>
@@ -9879,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>400</v>
       </c>
@@ -9893,7 +9948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>401</v>
       </c>
@@ -9910,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>402</v>
       </c>
@@ -9927,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>403</v>
       </c>
@@ -9944,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>404</v>
       </c>
@@ -9958,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>405</v>
       </c>
@@ -9975,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>406</v>
       </c>
@@ -9989,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>407</v>
       </c>
@@ -10003,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>408</v>
       </c>
@@ -10017,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>409</v>
       </c>
@@ -10031,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>410</v>
       </c>
@@ -10045,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>411</v>
       </c>
@@ -10059,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>412</v>
       </c>
@@ -10073,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>413</v>
       </c>
@@ -10099,7 +10154,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>414</v>
       </c>
@@ -10125,7 +10180,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>415</v>
       </c>
@@ -10148,7 +10203,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>416</v>
       </c>
@@ -10171,7 +10226,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>417</v>
       </c>
@@ -10197,7 +10252,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>418</v>
       </c>
@@ -10214,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>419</v>
       </c>
@@ -10231,7 +10286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>420</v>
       </c>
@@ -10248,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>421</v>
       </c>
@@ -10265,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>422</v>
       </c>
@@ -10282,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>423</v>
       </c>
@@ -10299,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>424</v>
       </c>
@@ -10313,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>425</v>
       </c>
@@ -10330,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>426</v>
       </c>
@@ -10347,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>427</v>
       </c>
@@ -10364,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>428</v>
       </c>
@@ -10381,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>429</v>
       </c>
@@ -10395,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>430</v>
       </c>
@@ -10418,7 +10473,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>431</v>
       </c>
@@ -10435,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>432</v>
       </c>
@@ -10449,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>433</v>
       </c>
@@ -10466,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>434</v>
       </c>
@@ -10483,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>435</v>
       </c>
@@ -10503,7 +10558,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>436</v>
       </c>
@@ -10520,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>437</v>
       </c>
@@ -10537,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>438</v>
       </c>
@@ -10554,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>439</v>
       </c>
@@ -10568,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>440</v>
       </c>
@@ -10582,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>441</v>
       </c>
@@ -10596,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>442</v>
       </c>
@@ -10610,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>443</v>
       </c>
@@ -10624,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>444</v>
       </c>
@@ -10638,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>445</v>
       </c>
@@ -10655,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>446</v>
       </c>
@@ -10669,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>447</v>
       </c>
@@ -10686,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>448</v>
       </c>
@@ -10700,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>449</v>
       </c>
@@ -10717,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>450</v>
       </c>
@@ -10734,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>451</v>
       </c>
@@ -10751,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>452</v>
       </c>
@@ -10768,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>453</v>
       </c>
@@ -10785,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>454</v>
       </c>
@@ -10799,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>455</v>
       </c>
@@ -10816,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>456</v>
       </c>
@@ -10830,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>457</v>
       </c>
@@ -10844,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>458</v>
       </c>
@@ -10867,7 +10922,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>459</v>
       </c>
@@ -10884,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>460</v>
       </c>
@@ -10898,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>461</v>
       </c>
@@ -10912,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>462</v>
       </c>
@@ -10929,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>463</v>
       </c>
@@ -10943,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>464</v>
       </c>
@@ -10957,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>465</v>
       </c>
@@ -10974,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>466</v>
       </c>
@@ -10988,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>467</v>
       </c>
@@ -11002,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>468</v>
       </c>
@@ -11016,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>469</v>
       </c>
@@ -11033,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>470</v>
       </c>
@@ -11050,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>471</v>
       </c>
@@ -11067,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>472</v>
       </c>
@@ -11084,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>473</v>
       </c>
@@ -11110,7 +11165,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>474</v>
       </c>
@@ -11133,7 +11188,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>475</v>
       </c>
@@ -11156,7 +11211,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>476</v>
       </c>
@@ -11179,7 +11234,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>477</v>
       </c>
@@ -11202,7 +11257,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>478</v>
       </c>
@@ -11219,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>479</v>
       </c>
@@ -11236,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>480</v>
       </c>
@@ -11250,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>481</v>
       </c>
@@ -11264,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>482</v>
       </c>
@@ -11278,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>483</v>
       </c>
@@ -11292,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>484</v>
       </c>
@@ -11306,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>485</v>
       </c>
@@ -11323,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>486</v>
       </c>
@@ -11337,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>487</v>
       </c>
@@ -11351,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>488</v>
       </c>
@@ -11365,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>489</v>
       </c>
@@ -11382,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>490</v>
       </c>
@@ -11396,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>491</v>
       </c>
@@ -11413,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>492</v>
       </c>
@@ -11427,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>493</v>
       </c>
@@ -11444,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>494</v>
       </c>
@@ -11461,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>495</v>
       </c>
@@ -11478,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>496</v>
       </c>
@@ -11492,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>497</v>
       </c>
@@ -11509,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>498</v>
       </c>
@@ -11526,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>499</v>
       </c>
@@ -11543,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>500</v>
       </c>
@@ -11560,7 +11615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>501</v>
       </c>
@@ -11577,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>502</v>
       </c>
@@ -11591,7 +11646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>503</v>
       </c>
@@ -11605,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>504</v>
       </c>
@@ -11619,7 +11674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>505</v>
       </c>
@@ -11633,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>506</v>
       </c>
@@ -11647,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>507</v>
       </c>
@@ -11661,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>508</v>
       </c>
@@ -11675,7 +11730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>509</v>
       </c>
@@ -11689,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>510</v>
       </c>
@@ -11706,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>511</v>
       </c>
@@ -11723,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>512</v>
       </c>
@@ -11737,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>513</v>
       </c>
@@ -11751,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>514</v>
       </c>
@@ -11774,7 +11829,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>515</v>
       </c>
@@ -11791,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>516</v>
       </c>
@@ -11805,7 +11860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>517</v>
       </c>
@@ -11822,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>518</v>
       </c>
@@ -11839,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>519</v>
       </c>
@@ -11856,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>520</v>
       </c>
@@ -11873,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>521</v>
       </c>
@@ -11890,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>522</v>
       </c>
@@ -11904,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>523</v>
       </c>
@@ -11918,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>524</v>
       </c>
@@ -11932,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>525</v>
       </c>
@@ -11946,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>526</v>
       </c>
@@ -11960,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>527</v>
       </c>
@@ -11977,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>528</v>
       </c>
@@ -11991,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>529</v>
       </c>
@@ -12005,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>530</v>
       </c>
@@ -12025,7 +12080,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>531</v>
       </c>
@@ -12039,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>532</v>
       </c>
@@ -12053,7 +12108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>533</v>
       </c>
@@ -12073,7 +12128,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>534</v>
       </c>
@@ -12096,7 +12151,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>535</v>
       </c>
@@ -12119,7 +12174,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>536</v>
       </c>
@@ -12142,7 +12197,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>537</v>
       </c>
@@ -12156,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>538</v>
       </c>
@@ -12170,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>539</v>
       </c>
@@ -12184,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>540</v>
       </c>
@@ -12198,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>541</v>
       </c>
@@ -12212,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>542</v>
       </c>
@@ -12226,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>543</v>
       </c>
@@ -12240,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>544</v>
       </c>
@@ -12254,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>545</v>
       </c>
@@ -12271,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>546</v>
       </c>
@@ -12285,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>547</v>
       </c>
@@ -12299,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>548</v>
       </c>
@@ -12313,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>549</v>
       </c>
@@ -12330,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>550</v>
       </c>
@@ -12344,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>551</v>
       </c>
@@ -12361,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>552</v>
       </c>
@@ -12375,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>553</v>
       </c>
@@ -12389,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>554</v>
       </c>
@@ -12403,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>555</v>
       </c>
@@ -12420,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>556</v>
       </c>
@@ -12434,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>557</v>
       </c>
@@ -12448,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>558</v>
       </c>
@@ -12462,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>559</v>
       </c>
@@ -12482,7 +12537,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>560</v>
       </c>
@@ -12496,7 +12551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>561</v>
       </c>
@@ -12510,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>562</v>
       </c>
@@ -12527,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>563</v>
       </c>
@@ -12541,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>564</v>
       </c>
@@ -12555,7 +12610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>565</v>
       </c>
@@ -12572,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>566</v>
       </c>
@@ -12589,7 +12644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>567</v>
       </c>
@@ -12603,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>568</v>
       </c>
@@ -12617,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>569</v>
       </c>
@@ -12634,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>570</v>
       </c>
@@ -12651,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>571</v>
       </c>
@@ -12668,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>572</v>
       </c>
@@ -12685,7 +12740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>573</v>
       </c>
@@ -12699,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>574</v>
       </c>
@@ -12713,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>575</v>
       </c>
@@ -12730,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>576</v>
       </c>
@@ -12744,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>577</v>
       </c>
@@ -12761,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>578</v>
       </c>
@@ -12775,7 +12830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>579</v>
       </c>
@@ -12792,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>580</v>
       </c>
@@ -12806,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>581</v>
       </c>
@@ -12820,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>582</v>
       </c>
@@ -12834,7 +12889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>583</v>
       </c>
@@ -12848,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>584</v>
       </c>
@@ -12862,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I578" t="s">
         <v>1062</v>
       </c>
